--- a/data/trans_orig/Q23-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q23-Estudios-trans_orig.xlsx
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>15.55578833996321</v>
+        <v>15.5698699519508</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>15.6544233439632</v>
+        <v>15.6672692259927</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15.73583146279867</v>
+        <v>15.71464873615771</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17.85266111171962</v>
+        <v>17.8508659587106</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>17.73267706669265</v>
+        <v>17.76168110247041</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>17.75764677229846</v>
+        <v>17.74758608269755</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>16.27534356736949</v>
+        <v>16.24519791407235</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>16.30193284293656</v>
+        <v>16.32851705539058</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>16.47164208516393</v>
+        <v>16.42313370349242</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.07485825249987</v>
+        <v>16.08697680409079</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.24308852239469</v>
+        <v>16.22436190515865</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.57930289492313</v>
+        <v>16.57067922906656</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19.72316038627292</v>
+        <v>19.72786806372152</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>19.3235696016065</v>
+        <v>19.31556469068063</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>19.94475469351725</v>
+        <v>20.05330138330682</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>16.91085142370115</v>
+        <v>16.92737860137188</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>16.90350440328883</v>
+        <v>16.91905127148693</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>17.3687346204845</v>
+        <v>17.32528998317956</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>16.26499387982389</v>
+        <v>16.27713086874241</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>16.39574063362007</v>
+        <v>16.38834549432335</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16.31742785117956</v>
+        <v>16.30519309550545</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16.6682044444367</v>
+        <v>16.67679537860962</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>17.10917773184861</v>
+        <v>17.1152868291778</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>17.24990282266618</v>
+        <v>17.24509219646419</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>16.49337268562853</v>
+        <v>16.5018889879853</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>16.75227164214765</v>
+        <v>16.73453658945205</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>16.78996131152299</v>
+        <v>16.7725923550263</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>16.687475233413</v>
+        <v>16.66983439056559</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>16.73660793346595</v>
+        <v>16.74316403995992</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16.73393129226622</v>
+        <v>16.71202970786006</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17.19228638125597</v>
+        <v>17.18995821464186</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>17.77030357883225</v>
+        <v>17.82102552607202</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>17.85361875505015</v>
+        <v>17.83671797943398</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>16.80999201691717</v>
+        <v>16.80104543160321</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>17.10177104851702</v>
+        <v>17.08281219921461</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>17.14835206870577</v>
+        <v>17.13439327345008</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>16.89676086956713</v>
+        <v>16.89561878538925</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>17.06950398968647</v>
+        <v>17.11429992615227</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16.6888081836511</v>
+        <v>16.6966132844909</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17.52266470075976</v>
+        <v>17.5431288733014</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>17.2652970161132</v>
+        <v>17.2845408008519</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>16.85894311332294</v>
+        <v>16.85549811334612</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>17.26456641611304</v>
+        <v>17.23927922860234</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>17.31625696330429</v>
+        <v>17.30996851585214</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>16.89386745012848</v>
+        <v>16.848773582422</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.68341755053265</v>
+        <v>17.66826174545121</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>18.0211716751812</v>
+        <v>18.01861113276374</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17.59840903560676</v>
+        <v>17.60626931161774</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18.84799672893078</v>
+        <v>18.98591990300411</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>18.58365370013994</v>
+        <v>18.46884613130886</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>17.70602803270393</v>
+        <v>17.7000386286433</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>17.96259903097837</v>
+        <v>17.9711098914734</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>18.12130974140688</v>
+        <v>18.08945369153552</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>17.51631469426002</v>
+        <v>17.4775155243052</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>16.19272551372568</v>
+        <v>16.19169417497756</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>16.31280121177211</v>
+        <v>16.31863835898691</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16.31432003294393</v>
+        <v>16.3051267561905</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17.2334039734938</v>
+        <v>17.23159006844712</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>17.38684878070887</v>
+        <v>17.40590224652148</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>17.38164336993736</v>
+        <v>17.40302467862548</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>16.60672778746126</v>
+        <v>16.62170243663266</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>16.77541898787444</v>
+        <v>16.78607392585698</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>16.80305744559326</v>
+        <v>16.81849198382692</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>16.49446987663723</v>
+        <v>16.48825570781888</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>16.60951809966998</v>
+        <v>16.60582435860764</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>16.65818575140868</v>
+        <v>16.67561540503995</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17.78523697512433</v>
+        <v>17.75321952956343</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>17.94877114028113</v>
+        <v>17.99854466205621</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>17.91971507238199</v>
+        <v>17.94372467436252</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>16.89032562422917</v>
+        <v>16.89572437984266</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>17.07074665304717</v>
+        <v>17.07412865176235</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>17.10387056576782</v>
+        <v>17.11732375891444</v>
       </c>
     </row>
     <row r="16">
